--- a/resources/3.xlsx
+++ b/resources/3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>Dizajn 250€
 Webstránka 10515€
@@ -35,6 +35,21 @@
   <si>
     <t>Poznámka na 
 viac riadkov</t>
+  </si>
+  <si>
+    <t>Poznámka na 
+oveľa
+viac riadkov</t>
+  </si>
+  <si>
+    <t>jean@gmail.com
+jakub.roncak@gmail.kroň
+elf@rene.sk</t>
+  </si>
+  <si>
+    <t>Erik Laďnakghj
+Jéáň Réňo
+Elf Reňe</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,13 +494,13 @@
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
-        <v>43589</v>
+        <v>44047</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -500,7 +515,7 @@
       <c r="O5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -508,10 +523,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>43559</v>
+        <v>43712</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>

--- a/resources/3.xlsx
+++ b/resources/3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
     <t>Dizajn 250€
 Webstránka 10515€
@@ -35,21 +35,6 @@
   <si>
     <t>Poznámka na 
 viac riadkov</t>
-  </si>
-  <si>
-    <t>Poznámka na 
-oveľa
-viac riadkov</t>
-  </si>
-  <si>
-    <t>jean@gmail.com
-jakub.roncak@gmail.kroň
-elf@rene.sk</t>
-  </si>
-  <si>
-    <t>Erik Laďnakghj
-Jéáň Réňo
-Elf Reňe</t>
   </si>
 </sst>
 </file>
@@ -434,7 +419,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,13 +479,13 @@
     </row>
     <row r="5" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" s="6">
-        <v>44047</v>
+        <v>43589</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>3</v>
@@ -515,7 +500,7 @@
       <c r="O5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
@@ -523,10 +508,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="6">
-        <v>43712</v>
+        <v>43559</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>0</v>
